--- a/Template files/KL 100 Curve.xlsx
+++ b/Template files/KL 100 Curve.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOKA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOKA\source\repos\WFC\Template files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{475766BF-FDD7-4B14-BC2C-2BF831358286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8064DB09-6487-49A2-A39D-1B54CA0D0D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{E1D14DF4-126B-4307-A62B-55829C729AFB}"/>
   </bookViews>
   <sheets>
-    <sheet name="KL100_Curve" sheetId="1" r:id="rId1"/>
+    <sheet name="CurveData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -448,7 +448,7 @@
         <v>1.5</v>
       </c>
       <c r="B2" s="1">
-        <f>-7.8059/(A2^2)+13.2151/A2+-2.321</f>
+        <f t="shared" ref="B2:B65" si="0">-7.8059/(A2^2)+13.2151/A2+-2.321</f>
         <v>3.0197777777777772</v>
       </c>
     </row>
@@ -457,7 +457,7 @@
         <v>1.51</v>
       </c>
       <c r="B3" s="1">
-        <f>-7.8059/(A3^2)+13.2151/A3+-2.321</f>
+        <f t="shared" si="0"/>
         <v>3.0072316565062933</v>
       </c>
     </row>
@@ -466,7 +466,7 @@
         <v>1.52</v>
       </c>
       <c r="B4" s="1">
-        <f>-7.8059/(A4^2)+13.2151/A4+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.9945522853185591</v>
       </c>
     </row>
@@ -475,7 +475,7 @@
         <v>1.53</v>
       </c>
       <c r="B5" s="1">
-        <f>-7.8059/(A5^2)+13.2151/A5+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.9817480883420902</v>
       </c>
     </row>
@@ -484,7 +484,7 @@
         <v>1.54</v>
       </c>
       <c r="B6" s="1">
-        <f>-7.8059/(A6^2)+13.2151/A6+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.968827120931016</v>
       </c>
     </row>
@@ -493,7 +493,7 @@
         <v>1.55</v>
       </c>
       <c r="B7" s="1">
-        <f>-7.8059/(A7^2)+13.2151/A7+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.9557970863683667</v>
       </c>
     </row>
@@ -502,7 +502,7 @@
         <v>1.56</v>
       </c>
       <c r="B8" s="1">
-        <f>-7.8059/(A8^2)+13.2151/A8+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.9426653517422738</v>
       </c>
     </row>
@@ -511,7 +511,7 @@
         <v>1.57</v>
       </c>
       <c r="B9" s="1">
-        <f>-7.8059/(A9^2)+13.2151/A9+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.9294389630410964</v>
       </c>
     </row>
@@ -520,7 +520,7 @@
         <v>1.58</v>
       </c>
       <c r="B10" s="1">
-        <f>-7.8059/(A10^2)+13.2151/A10+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.9161246595096944</v>
       </c>
     </row>
@@ -529,7 +529,7 @@
         <v>1.59</v>
       </c>
       <c r="B11" s="1">
-        <f>-7.8059/(A11^2)+13.2151/A11+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.9027288873066728</v>
       </c>
     </row>
@@ -538,7 +538,7 @@
         <v>1.6</v>
       </c>
       <c r="B12" s="1">
-        <f>-7.8059/(A12^2)+13.2151/A12+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.889257812499999</v>
       </c>
     </row>
@@ -547,7 +547,7 @@
         <v>1.61</v>
       </c>
       <c r="B13" s="1">
-        <f>-7.8059/(A13^2)+13.2151/A13+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.8757173334362096</v>
       </c>
     </row>
@@ -556,7 +556,7 @@
         <v>1.62</v>
       </c>
       <c r="B14" s="1">
-        <f>-7.8059/(A14^2)+13.2151/A14+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.8621130925163842</v>
       </c>
     </row>
@@ -565,7 +565,7 @@
         <v>1.63</v>
       </c>
       <c r="B15" s="1">
-        <f>-7.8059/(A15^2)+13.2151/A15+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.8484504874101391</v>
       </c>
     </row>
@@ -574,7 +574,7 @@
         <v>1.64</v>
       </c>
       <c r="B16" s="1">
-        <f>-7.8059/(A16^2)+13.2151/A16+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.8347346817370611</v>
       </c>
     </row>
@@ -583,7 +583,7 @@
         <v>1.65</v>
       </c>
       <c r="B17" s="1">
-        <f>-7.8059/(A17^2)+13.2151/A17+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.820970615243342</v>
       </c>
     </row>
@@ -592,7 +592,7 @@
         <v>1.66</v>
       </c>
       <c r="B18" s="1">
-        <f>-7.8059/(A18^2)+13.2151/A18+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.8071630134997814</v>
       </c>
     </row>
@@ -601,7 +601,7 @@
         <v>1.67</v>
       </c>
       <c r="B19" s="1">
-        <f>-7.8059/(A19^2)+13.2151/A19+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.7933163971458277</v>
       </c>
     </row>
@@ -610,7 +610,7 @@
         <v>1.68</v>
       </c>
       <c r="B20" s="1">
-        <f>-7.8059/(A20^2)+13.2151/A20+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.7794350907029481</v>
       </c>
     </row>
@@ -619,7 +619,7 @@
         <v>1.69</v>
       </c>
       <c r="B21" s="1">
-        <f>-7.8059/(A21^2)+13.2151/A21+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.7655232309793072</v>
       </c>
     </row>
@@ -628,7 +628,7 @@
         <v>1.7</v>
       </c>
       <c r="B22" s="1">
-        <f>-7.8059/(A22^2)+13.2151/A22+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.7515847750865041</v>
       </c>
     </row>
@@ -637,7 +637,7 @@
         <v>1.71</v>
       </c>
       <c r="B23" s="1">
-        <f>-7.8059/(A23^2)+13.2151/A23+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.7376235080879581</v>
       </c>
     </row>
@@ -646,7 +646,7 @@
         <v>1.72</v>
       </c>
       <c r="B24" s="1">
-        <f>-7.8059/(A24^2)+13.2151/A24+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.7236430502974573</v>
       </c>
     </row>
@@ -655,7 +655,7 @@
         <v>1.73</v>
       </c>
       <c r="B25" s="1">
-        <f>-7.8059/(A25^2)+13.2151/A25+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.7096468642453799</v>
       </c>
     </row>
@@ -664,7 +664,7 @@
         <v>1.74</v>
       </c>
       <c r="B26" s="1">
-        <f>-7.8059/(A26^2)+13.2151/A26+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.6956382613291043</v>
       </c>
     </row>
@@ -673,7 +673,7 @@
         <v>1.75</v>
       </c>
       <c r="B27" s="1">
-        <f>-7.8059/(A27^2)+13.2151/A27+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.6816204081632651</v>
       </c>
     </row>
@@ -682,7 +682,7 @@
         <v>1.76</v>
       </c>
       <c r="B28" s="1">
-        <f>-7.8059/(A28^2)+13.2151/A28+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.6675963326446275</v>
       </c>
     </row>
@@ -691,7 +691,7 @@
         <v>1.77</v>
       </c>
       <c r="B29" s="1">
-        <f>-7.8059/(A29^2)+13.2151/A29+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.6535689297456027</v>
       </c>
     </row>
@@ -700,7 +700,7 @@
         <v>1.78</v>
       </c>
       <c r="B30" s="1">
-        <f>-7.8059/(A30^2)+13.2151/A30+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.6395409670496144</v>
       </c>
     </row>
@@ -709,7 +709,7 @@
         <v>1.79</v>
       </c>
       <c r="B31" s="1">
-        <f>-7.8059/(A31^2)+13.2151/A31+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.6255150900408846</v>
       </c>
     </row>
@@ -718,7 +718,7 @@
         <v>1.8</v>
       </c>
       <c r="B32" s="1">
-        <f>-7.8059/(A32^2)+13.2151/A32+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.6114938271604937</v>
       </c>
     </row>
@@ -727,7 +727,7 @@
         <v>1.81</v>
       </c>
       <c r="B33" s="1">
-        <f>-7.8059/(A33^2)+13.2151/A33+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.5974795946399669</v>
       </c>
     </row>
@@ -736,7 +736,7 @@
         <v>1.82</v>
       </c>
       <c r="B34" s="1">
-        <f>-7.8059/(A34^2)+13.2151/A34+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.5834747011230523</v>
       </c>
     </row>
@@ -745,7 +745,7 @@
         <v>1.83</v>
       </c>
       <c r="B35" s="1">
-        <f>-7.8059/(A35^2)+13.2151/A35+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.5694813520857589</v>
       </c>
     </row>
@@ -754,7 +754,7 @@
         <v>1.84</v>
       </c>
       <c r="B36" s="1">
-        <f>-7.8059/(A36^2)+13.2151/A36+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.5555016540642712</v>
       </c>
     </row>
@@ -763,7 +763,7 @@
         <v>1.85</v>
       </c>
       <c r="B37" s="1">
-        <f>-7.8059/(A37^2)+13.2151/A37+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.5415376186997807</v>
       </c>
     </row>
@@ -772,7 +772,7 @@
         <v>1.86</v>
       </c>
       <c r="B38" s="1">
-        <f>-7.8059/(A38^2)+13.2151/A38+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.5275911666088562</v>
       </c>
     </row>
@@ -781,7 +781,7 @@
         <v>1.87</v>
       </c>
       <c r="B39" s="1">
-        <f>-7.8059/(A39^2)+13.2151/A39+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.5136641310875345</v>
       </c>
     </row>
@@ -790,7 +790,7 @@
         <v>1.88</v>
       </c>
       <c r="B40" s="1">
-        <f>-7.8059/(A40^2)+13.2151/A40+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.4997582616568583</v>
       </c>
     </row>
@@ -799,7 +799,7 @@
         <v>1.89</v>
       </c>
       <c r="B41" s="1">
-        <f>-7.8059/(A41^2)+13.2151/A41+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.4858752274572384</v>
       </c>
     </row>
@@ -808,7 +808,7 @@
         <v>1.9</v>
       </c>
       <c r="B42" s="1">
-        <f>-7.8059/(A42^2)+13.2151/A42+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.4720166204986147</v>
       </c>
     </row>
@@ -817,7 +817,7 @@
         <v>1.91</v>
       </c>
       <c r="B43" s="1">
-        <f>-7.8059/(A43^2)+13.2151/A43+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.4581839587730596</v>
       </c>
     </row>
@@ -826,7 +826,7 @@
         <v>1.92</v>
       </c>
       <c r="B44" s="1">
-        <f>-7.8059/(A44^2)+13.2151/A44+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.4443786892361108</v>
       </c>
     </row>
@@ -835,7 +835,7 @@
         <v>1.93</v>
       </c>
       <c r="B45" s="1">
-        <f>-7.8059/(A45^2)+13.2151/A45+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.4306021906628366</v>
       </c>
     </row>
@@ -844,7 +844,7 @@
         <v>1.94</v>
       </c>
       <c r="B46" s="1">
-        <f>-7.8059/(A46^2)+13.2151/A46+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.4168557763843128</v>
       </c>
     </row>
@@ -853,7 +853,7 @@
         <v>1.95</v>
       </c>
       <c r="B47" s="1">
-        <f>-7.8059/(A47^2)+13.2151/A47+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.4031406969099272</v>
       </c>
     </row>
@@ -862,7 +862,7 @@
         <v>1.96</v>
       </c>
       <c r="B48" s="1">
-        <f>-7.8059/(A48^2)+13.2151/A48+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.3894581424406494</v>
       </c>
     </row>
@@ -871,7 +871,7 @@
         <v>1.97</v>
       </c>
       <c r="B49" s="1">
-        <f>-7.8059/(A49^2)+13.2151/A49+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.3758092452781567</v>
       </c>
     </row>
@@ -880,7 +880,7 @@
         <v>1.98</v>
       </c>
       <c r="B50" s="1">
-        <f>-7.8059/(A50^2)+13.2151/A50+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.3621950821344755</v>
       </c>
     </row>
@@ -889,7 +889,7 @@
         <v>1.99</v>
       </c>
       <c r="B51" s="1">
-        <f>-7.8059/(A51^2)+13.2151/A51+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.3486166763465568</v>
       </c>
     </row>
@@ -898,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="1">
-        <f>-7.8059/(A52^2)+13.2151/A52+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.3350749999999993</v>
       </c>
     </row>
@@ -907,7 +907,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="B53" s="1">
-        <f>-7.8059/(A53^2)+13.2151/A53+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.3215709759659418</v>
       </c>
     </row>
@@ -916,7 +916,7 @@
         <v>2.02</v>
       </c>
       <c r="B54" s="1">
-        <f>-7.8059/(A54^2)+13.2151/A54+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.3081054798549157</v>
       </c>
     </row>
@@ -925,7 +925,7 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="B55" s="1">
-        <f>-7.8059/(A55^2)+13.2151/A55+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.2946793418913338</v>
       </c>
     </row>
@@ -934,7 +934,7 @@
         <v>2.04</v>
       </c>
       <c r="B56" s="1">
-        <f>-7.8059/(A56^2)+13.2151/A56+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.2812933487120328</v>
       </c>
     </row>
@@ -943,7 +943,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="B57" s="1">
-        <f>-7.8059/(A57^2)+13.2151/A57+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.267948245092207</v>
       </c>
     </row>
@@ -952,7 +952,7 @@
         <v>2.06</v>
       </c>
       <c r="B58" s="1">
-        <f>-7.8059/(A58^2)+13.2151/A58+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.2546447356018473</v>
       </c>
     </row>
@@ -961,7 +961,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="B59" s="1">
-        <f>-7.8059/(A59^2)+13.2151/A59+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.2413834861957098</v>
       </c>
     </row>
@@ -970,7 +970,7 @@
         <v>2.08</v>
       </c>
       <c r="B60" s="1">
-        <f>-7.8059/(A60^2)+13.2151/A60+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.2281651257396446</v>
       </c>
     </row>
@@ -979,7 +979,7 @@
         <v>2.09</v>
       </c>
       <c r="B61" s="1">
-        <f>-7.8059/(A61^2)+13.2151/A61+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.214990247476019</v>
       </c>
     </row>
@@ -988,7 +988,7 @@
         <v>2.1</v>
       </c>
       <c r="B62" s="1">
-        <f>-7.8059/(A62^2)+13.2151/A62+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.201859410430838</v>
       </c>
     </row>
@@ -997,7 +997,7 @@
         <v>2.11</v>
       </c>
       <c r="B63" s="1">
-        <f>-7.8059/(A63^2)+13.2151/A63+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.1887731407650324</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         <v>2.12</v>
       </c>
       <c r="B64" s="1">
-        <f>-7.8059/(A64^2)+13.2151/A64+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.1757319330722678</v>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
         <v>2.13</v>
       </c>
       <c r="B65" s="1">
-        <f>-7.8059/(A65^2)+13.2151/A65+-2.321</f>
+        <f t="shared" si="0"/>
         <v>2.1627362516255588</v>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
         <v>2.14</v>
       </c>
       <c r="B66" s="1">
-        <f>-7.8059/(A66^2)+13.2151/A66+-2.321</f>
+        <f t="shared" ref="B66:B129" si="1">-7.8059/(A66^2)+13.2151/A66+-2.321</f>
         <v>2.1497865315748093</v>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
         <v>2.15</v>
       </c>
       <c r="B67" s="1">
-        <f>-7.8059/(A67^2)+13.2151/A67+-2.321</f>
+        <f t="shared" si="1"/>
         <v>2.1368831800973491</v>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
         <v>2.16</v>
       </c>
       <c r="B68" s="1">
-        <f>-7.8059/(A68^2)+13.2151/A68+-2.321</f>
+        <f t="shared" si="1"/>
         <v>2.1240265775034284</v>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
         <v>2.17</v>
       </c>
       <c r="B69" s="1">
-        <f>-7.8059/(A69^2)+13.2151/A69+-2.321</f>
+        <f t="shared" si="1"/>
         <v>2.1112170782985413</v>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="B70" s="1">
-        <f>-7.8059/(A70^2)+13.2151/A70+-2.321</f>
+        <f t="shared" si="1"/>
         <v>2.0984550122043593</v>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
         <v>2.19</v>
       </c>
       <c r="B71" s="1">
-        <f>-7.8059/(A71^2)+13.2151/A71+-2.321</f>
+        <f t="shared" si="1"/>
         <v>2.0857406851400087</v>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B72" s="1">
-        <f>-7.8059/(A72^2)+13.2151/A72+-2.321</f>
+        <f t="shared" si="1"/>
         <v>2.0730743801652882</v>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
         <v>2.21</v>
       </c>
       <c r="B73" s="1">
-        <f>-7.8059/(A73^2)+13.2151/A73+-2.321</f>
+        <f t="shared" si="1"/>
         <v>2.06045635838742</v>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="B74" s="1">
-        <f>-7.8059/(A74^2)+13.2151/A74+-2.321</f>
+        <f t="shared" si="1"/>
         <v>2.0478868598328046</v>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
         <v>2.23</v>
       </c>
       <c r="B75" s="1">
-        <f>-7.8059/(A75^2)+13.2151/A75+-2.321</f>
+        <f t="shared" si="1"/>
         <v>2.0353661042852251</v>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="B76" s="1">
-        <f>-7.8059/(A76^2)+13.2151/A76+-2.321</f>
+        <f t="shared" si="1"/>
         <v>2.0228942920918365</v>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
         <v>2.25</v>
       </c>
       <c r="B77" s="1">
-        <f>-7.8059/(A77^2)+13.2151/A77+-2.321</f>
+        <f t="shared" si="1"/>
         <v>2.0104716049382714</v>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="B78" s="1">
-        <f>-7.8059/(A78^2)+13.2151/A78+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.9980982065940949</v>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
         <v>2.27</v>
       </c>
       <c r="B79" s="1">
-        <f>-7.8059/(A79^2)+13.2151/A79+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.9857742436297996</v>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="B80" s="1">
-        <f>-7.8059/(A80^2)+13.2151/A80+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.9734998461064941</v>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
         <v>2.29</v>
       </c>
       <c r="B81" s="1">
-        <f>-7.8059/(A81^2)+13.2151/A81+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.9612751282393535</v>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B82" s="1">
-        <f>-7.8059/(A82^2)+13.2151/A82+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.9491001890359168</v>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
         <v>2.31</v>
       </c>
       <c r="B83" s="1">
-        <f>-7.8059/(A83^2)+13.2151/A83+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.9369751129101771</v>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="B84" s="1">
-        <f>-7.8059/(A84^2)+13.2151/A84+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.9248999702734833</v>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
         <v>2.33</v>
       </c>
       <c r="B85" s="1">
-        <f>-7.8059/(A85^2)+13.2151/A85+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.912874818103115</v>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
         <v>2.34</v>
       </c>
       <c r="B86" s="1">
-        <f>-7.8059/(A86^2)+13.2151/A86+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.9008997004894437</v>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
         <v>2.35</v>
       </c>
       <c r="B87" s="1">
-        <f>-7.8059/(A87^2)+13.2151/A87+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.8889746491625163</v>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
         <v>2.36</v>
       </c>
       <c r="B88" s="1">
-        <f>-7.8059/(A88^2)+13.2151/A88+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.8770996839988512</v>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
         <v>2.37</v>
       </c>
       <c r="B89" s="1">
-        <f>-7.8059/(A89^2)+13.2151/A89+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.8652748135092305</v>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
         <v>2.38</v>
       </c>
       <c r="B90" s="1">
-        <f>-7.8059/(A90^2)+13.2151/A90+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.8535000353082407</v>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
         <v>2.39</v>
       </c>
       <c r="B91" s="1">
-        <f>-7.8059/(A91^2)+13.2151/A91+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.8417753365662359</v>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
         <v>2.4</v>
       </c>
       <c r="B92" s="1">
-        <f>-7.8059/(A92^2)+13.2151/A92+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.8301006944444445</v>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
         <v>2.41</v>
       </c>
       <c r="B93" s="1">
-        <f>-7.8059/(A93^2)+13.2151/A93+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.8184760765138335</v>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
         <v>2.42</v>
       </c>
       <c r="B94" s="1">
-        <f>-7.8059/(A94^2)+13.2151/A94+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.8069014411583901</v>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="B95" s="1">
-        <f>-7.8059/(A95^2)+13.2151/A95+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.7953767379633851</v>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>2.44</v>
       </c>
       <c r="B96" s="1">
-        <f>-7.8059/(A96^2)+13.2151/A96+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.7839019080892231</v>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="B97" s="1">
-        <f>-7.8059/(A97^2)+13.2151/A97+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.7724768846314025</v>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
         <v>2.46</v>
       </c>
       <c r="B98" s="1">
-        <f>-7.8059/(A98^2)+13.2151/A98+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.7611015929671487</v>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="B99" s="1">
-        <f>-7.8059/(A99^2)+13.2151/A99+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.7497759510891835</v>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
         <v>2.48</v>
       </c>
       <c r="B100" s="1">
-        <f>-7.8059/(A100^2)+13.2151/A100+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.7384998699271583</v>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="B101" s="1">
-        <f>-7.8059/(A101^2)+13.2151/A101+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.7272732536571982</v>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
         <v>2.5</v>
       </c>
       <c r="B102" s="1">
-        <f>-7.8059/(A102^2)+13.2151/A102+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.7160959999999998</v>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="B103" s="1">
-        <f>-7.8059/(A103^2)+13.2151/A103+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.7049680005079284</v>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
         <v>2.52</v>
       </c>
       <c r="B104" s="1">
-        <f>-7.8059/(A104^2)+13.2151/A104+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.6938891408415215</v>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="B105" s="1">
-        <f>-7.8059/(A105^2)+13.2151/A105+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.682859301035792</v>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
         <v>2.54</v>
       </c>
       <c r="B106" s="1">
-        <f>-7.8059/(A106^2)+13.2151/A106+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.6718783557567112</v>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="B107" s="1">
-        <f>-7.8059/(A107^2)+13.2151/A107+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.6609461745482501</v>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
         <v>2.56</v>
       </c>
       <c r="B108" s="1">
-        <f>-7.8059/(A108^2)+13.2151/A108+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.6500626220703123</v>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
         <v>2.57</v>
       </c>
       <c r="B109" s="1">
-        <f>-7.8059/(A109^2)+13.2151/A109+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.6392275583279075</v>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
         <v>2.58</v>
       </c>
       <c r="B110" s="1">
-        <f>-7.8059/(A110^2)+13.2151/A110+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.6284408388918932</v>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
         <v>2.59</v>
       </c>
       <c r="B111" s="1">
-        <f>-7.8059/(A111^2)+13.2151/A111+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.6177023151115812</v>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
         <v>2.6</v>
       </c>
       <c r="B112" s="1">
-        <f>-7.8059/(A112^2)+13.2151/A112+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.6070118343195259</v>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
         <v>2.61</v>
       </c>
       <c r="B113" s="1">
-        <f>-7.8059/(A113^2)+13.2151/A113+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.5963692400287717</v>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
         <v>2.62</v>
       </c>
       <c r="B114" s="1">
-        <f>-7.8059/(A114^2)+13.2151/A114+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.5857743721228359</v>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
         <v>2.63</v>
       </c>
       <c r="B115" s="1">
-        <f>-7.8059/(A115^2)+13.2151/A115+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.5752270670387021</v>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
         <v>2.64</v>
       </c>
       <c r="B116" s="1">
-        <f>-7.8059/(A116^2)+13.2151/A116+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.5647271579430662</v>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
         <v>2.65</v>
       </c>
       <c r="B117" s="1">
-        <f>-7.8059/(A117^2)+13.2151/A117+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.5542744749020998</v>
       </c>
     </row>
@@ -1492,7 +1492,7 @@
         <v>2.66</v>
       </c>
       <c r="B118" s="1">
-        <f>-7.8059/(A118^2)+13.2151/A118+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.5438688450449427</v>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
         <v>2.67</v>
       </c>
       <c r="B119" s="1">
-        <f>-7.8059/(A119^2)+13.2151/A119+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.5335100927211776</v>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
         <v>2.68</v>
       </c>
       <c r="B120" s="1">
-        <f>-7.8059/(A120^2)+13.2151/A120+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.5231980396524833</v>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
         <v>2.69</v>
       </c>
       <c r="B121" s="1">
-        <f>-7.8059/(A121^2)+13.2151/A121+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.5129325050787026</v>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
         <v>2.7</v>
       </c>
       <c r="B122" s="1">
-        <f>-7.8059/(A122^2)+13.2151/A122+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.5027133058984909</v>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
         <v>2.71</v>
       </c>
       <c r="B123" s="1">
-        <f>-7.8059/(A123^2)+13.2151/A123+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.4925402568047819</v>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
         <v>2.72</v>
       </c>
       <c r="B124" s="1">
-        <f>-7.8059/(A124^2)+13.2151/A124+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.4824131704152248</v>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
         <v>2.73</v>
       </c>
       <c r="B125" s="1">
-        <f>-7.8059/(A125^2)+13.2151/A125+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.4723318573977915</v>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
         <v>2.74</v>
       </c>
       <c r="B126" s="1">
-        <f>-7.8059/(A126^2)+13.2151/A126+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.46229612659172</v>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
         <v>2.75</v>
       </c>
       <c r="B127" s="1">
-        <f>-7.8059/(A127^2)+13.2151/A127+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.4523057851239667</v>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
         <v>2.76</v>
       </c>
       <c r="B128" s="1">
-        <f>-7.8059/(A128^2)+13.2151/A128+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.4423606385213188</v>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
         <v>2.77</v>
       </c>
       <c r="B129" s="1">
-        <f>-7.8059/(A129^2)+13.2151/A129+-2.321</f>
+        <f t="shared" si="1"/>
         <v>1.4324604908183347</v>
       </c>
     </row>
@@ -1600,7 +1600,7 @@
         <v>2.78</v>
       </c>
       <c r="B130" s="1">
-        <f>-7.8059/(A130^2)+13.2151/A130+-2.321</f>
+        <f t="shared" ref="B130:B193" si="2">-7.8059/(A130^2)+13.2151/A130+-2.321</f>
         <v>1.4226051446612495</v>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
         <v>2.79</v>
       </c>
       <c r="B131" s="1">
-        <f>-7.8059/(A131^2)+13.2151/A131+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.4127944014079983</v>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
         <v>2.8</v>
       </c>
       <c r="B132" s="1">
-        <f>-7.8059/(A132^2)+13.2151/A132+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.403028061224489</v>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
         <v>2.81</v>
       </c>
       <c r="B133" s="1">
-        <f>-7.8059/(A133^2)+13.2151/A133+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.3933059231772642</v>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
         <v>2.82</v>
       </c>
       <c r="B134" s="1">
-        <f>-7.8059/(A134^2)+13.2151/A134+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.3836277853226702</v>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
         <v>2.83</v>
       </c>
       <c r="B135" s="1">
-        <f>-7.8059/(A135^2)+13.2151/A135+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.3739934447926676</v>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
         <v>2.84</v>
       </c>
       <c r="B136" s="1">
-        <f>-7.8059/(A136^2)+13.2151/A136+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.3644026978774049</v>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
         <v>2.85</v>
       </c>
       <c r="B137" s="1">
-        <f>-7.8059/(A137^2)+13.2151/A137+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.3548553401046473</v>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
         <v>2.86</v>
       </c>
       <c r="B138" s="1">
-        <f>-7.8059/(A138^2)+13.2151/A138+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.3453511663162012</v>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
         <v>2.87</v>
       </c>
       <c r="B139" s="1">
-        <f>-7.8059/(A139^2)+13.2151/A139+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.3358899707414191</v>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
         <v>2.88</v>
       </c>
       <c r="B140" s="1">
-        <f>-7.8059/(A140^2)+13.2151/A140+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.3264715470679009</v>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
         <v>2.89</v>
       </c>
       <c r="B141" s="1">
-        <f>-7.8059/(A141^2)+13.2151/A141+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.3170956885094762</v>
       </c>
     </row>
@@ -1708,7 +1708,7 @@
         <v>2.9</v>
       </c>
       <c r="B142" s="1">
-        <f>-7.8059/(A142^2)+13.2151/A142+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.3077621878715813</v>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
         <v>2.91</v>
       </c>
       <c r="B143" s="1">
-        <f>-7.8059/(A143^2)+13.2151/A143+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.2984708376141043</v>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
         <v>2.92</v>
       </c>
       <c r="B144" s="1">
-        <f>-7.8059/(A144^2)+13.2151/A144+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.2892214299118034</v>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
         <v>2.93</v>
       </c>
       <c r="B145" s="1">
-        <f>-7.8059/(A145^2)+13.2151/A145+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.2800137567123668</v>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         <v>2.94</v>
       </c>
       <c r="B146" s="1">
-        <f>-7.8059/(A146^2)+13.2151/A146+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.2708476097922157</v>
       </c>
     </row>
@@ -1753,7 +1753,7 @@
         <v>2.95</v>
       </c>
       <c r="B147" s="1">
-        <f>-7.8059/(A147^2)+13.2151/A147+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.2617227808101119</v>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
         <v>2.96</v>
       </c>
       <c r="B148" s="1">
-        <f>-7.8059/(A148^2)+13.2151/A148+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.2526390613586558</v>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
         <v>2.97</v>
       </c>
       <c r="B149" s="1">
-        <f>-7.8059/(A149^2)+13.2151/A149+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.243596243013751</v>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
         <v>2.98</v>
       </c>
       <c r="B150" s="1">
-        <f>-7.8059/(A150^2)+13.2151/A150+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.2345941173820996</v>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
         <v>2.99</v>
       </c>
       <c r="B151" s="1">
-        <f>-7.8059/(A151^2)+13.2151/A151+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.225632476146798</v>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
         <v>3</v>
       </c>
       <c r="B152" s="1">
-        <f>-7.8059/(A152^2)+13.2151/A152+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.2167111111111106</v>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
         <v>3.01</v>
       </c>
       <c r="B153" s="1">
-        <f>-7.8059/(A153^2)+13.2151/A153+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.2078298142404607</v>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
         <v>3.02</v>
       </c>
       <c r="B154" s="1">
-        <f>-7.8059/(A154^2)+13.2151/A154+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.1989883777027321</v>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
         <v>3.03</v>
       </c>
       <c r="B155" s="1">
-        <f>-7.8059/(A155^2)+13.2151/A155+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.1901865939069149</v>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
         <v>3.04</v>
       </c>
       <c r="B156" s="1">
-        <f>-7.8059/(A156^2)+13.2151/A156+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.1814242555401662</v>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
         <v>3.05</v>
       </c>
       <c r="B157" s="1">
-        <f>-7.8059/(A157^2)+13.2151/A157+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.1727011556033324</v>
       </c>
     </row>
@@ -1852,7 +1852,7 @@
         <v>3.06</v>
       </c>
       <c r="B158" s="1">
-        <f>-7.8059/(A158^2)+13.2151/A158+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.1640170874449995</v>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
         <v>3.07</v>
       </c>
       <c r="B159" s="1">
-        <f>-7.8059/(A159^2)+13.2151/A159+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.1553718447941095</v>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
         <v>3.08</v>
       </c>
       <c r="B160" s="1">
-        <f>-7.8059/(A160^2)+13.2151/A160+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.146765221791195</v>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
         <v>3.09</v>
       </c>
       <c r="B161" s="1">
-        <f>-7.8059/(A161^2)+13.2151/A161+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.138197013018297</v>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
         <v>3.1</v>
       </c>
       <c r="B162" s="1">
-        <f>-7.8059/(A162^2)+13.2151/A162+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.1296670135275755</v>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
         <v>3.11</v>
       </c>
       <c r="B163" s="1">
-        <f>-7.8059/(A163^2)+13.2151/A163+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.1211750188687049</v>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
         <v>3.12</v>
       </c>
       <c r="B164" s="1">
-        <f>-7.8059/(A164^2)+13.2151/A164+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.1127208251150553</v>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
         <v>3.13</v>
       </c>
       <c r="B165" s="1">
-        <f>-7.8059/(A165^2)+13.2151/A165+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.1043042288887301</v>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
         <v>3.14</v>
       </c>
       <c r="B166" s="1">
-        <f>-7.8059/(A166^2)+13.2151/A166+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.0959250273844776</v>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
         <v>3.15</v>
       </c>
       <c r="B167" s="1">
-        <f>-7.8059/(A167^2)+13.2151/A167+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.0875830183925417</v>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
         <v>3.16</v>
       </c>
       <c r="B168" s="1">
-        <f>-7.8059/(A168^2)+13.2151/A168+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.0792780003204614</v>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
         <v>3.17</v>
       </c>
       <c r="B169" s="1">
-        <f>-7.8059/(A169^2)+13.2151/A169+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.0710097722138743</v>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
         <v>3.18</v>
       </c>
       <c r="B170" s="1">
-        <f>-7.8059/(A170^2)+13.2151/A170+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.0627781337763538</v>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
         <v>3.19</v>
       </c>
       <c r="B171" s="1">
-        <f>-7.8059/(A171^2)+13.2151/A171+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.0545828853883115</v>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
         <v>3.2</v>
       </c>
       <c r="B172" s="1">
-        <f>-7.8059/(A172^2)+13.2151/A172+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.0464238281249991</v>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
         <v>3.21</v>
       </c>
       <c r="B173" s="1">
-        <f>-7.8059/(A173^2)+13.2151/A173+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.0383007637736434</v>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
         <v>3.22</v>
       </c>
       <c r="B174" s="1">
-        <f>-7.8059/(A174^2)+13.2151/A174+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.0302134948497352</v>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
         <v>3.23</v>
       </c>
       <c r="B175" s="1">
-        <f>-7.8059/(A175^2)+13.2151/A175+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.0221618246125233</v>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
         <v>3.24</v>
       </c>
       <c r="B176" s="1">
-        <f>-7.8059/(A176^2)+13.2151/A176+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.0141455570797131</v>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
         <v>3.25</v>
       </c>
       <c r="B177" s="1">
-        <f>-7.8059/(A177^2)+13.2151/A177+-2.321</f>
+        <f t="shared" si="2"/>
         <v>1.0061644970414196</v>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
         <v>3.26</v>
       </c>
       <c r="B178" s="1">
-        <f>-7.8059/(A178^2)+13.2151/A178+-2.321</f>
+        <f t="shared" si="2"/>
         <v>0.99821845007339371</v>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
         <v>3.27</v>
       </c>
       <c r="B179" s="1">
-        <f>-7.8059/(A179^2)+13.2151/A179+-2.321</f>
+        <f t="shared" si="2"/>
         <v>0.99030722254954195</v>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
         <v>3.28</v>
       </c>
       <c r="B180" s="1">
-        <f>-7.8059/(A180^2)+13.2151/A180+-2.321</f>
+        <f t="shared" si="2"/>
         <v>0.9824306216537777</v>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
         <v>3.29</v>
       </c>
       <c r="B181" s="1">
-        <f>-7.8059/(A181^2)+13.2151/A181+-2.321</f>
+        <f t="shared" si="2"/>
         <v>0.97458845539121031</v>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
         <v>3.3</v>
       </c>
       <c r="B182" s="1">
-        <f>-7.8059/(A182^2)+13.2151/A182+-2.321</f>
+        <f t="shared" si="2"/>
         <v>0.96678053259871399</v>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
         <v>3.31</v>
       </c>
       <c r="B183" s="1">
-        <f>-7.8059/(A183^2)+13.2151/A183+-2.321</f>
+        <f t="shared" si="2"/>
         <v>0.95900666295488346</v>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
         <v>3.32</v>
       </c>
       <c r="B184" s="1">
-        <f>-7.8059/(A184^2)+13.2151/A184+-2.321</f>
+        <f t="shared" si="2"/>
         <v>0.95126665698940327</v>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
         <v>3.33</v>
       </c>
       <c r="B185" s="1">
-        <f>-7.8059/(A185^2)+13.2151/A185+-2.321</f>
+        <f t="shared" si="2"/>
         <v>0.94356032609185725</v>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
         <v>3.34</v>
       </c>
       <c r="B186" s="1">
-        <f>-7.8059/(A186^2)+13.2151/A186+-2.321</f>
+        <f t="shared" si="2"/>
         <v>0.93588748251998988</v>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
         <v>3.35</v>
       </c>
       <c r="B187" s="1">
-        <f>-7.8059/(A187^2)+13.2151/A187+-2.321</f>
+        <f t="shared" si="2"/>
         <v>0.9282479394074401</v>
       </c>
     </row>
@@ -2122,7 +2122,7 @@
         <v>3.36</v>
       </c>
       <c r="B188" s="1">
-        <f>-7.8059/(A188^2)+13.2151/A188+-2.321</f>
+        <f t="shared" si="2"/>
         <v>0.92064151077097511</v>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
         <v>3.37</v>
       </c>
       <c r="B189" s="1">
-        <f>-7.8059/(A189^2)+13.2151/A189+-2.321</f>
+        <f t="shared" si="2"/>
         <v>0.91306801151722716</v>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
         <v>3.38</v>
       </c>
       <c r="B190" s="1">
-        <f>-7.8059/(A190^2)+13.2151/A190+-2.321</f>
+        <f t="shared" si="2"/>
         <v>0.90552725744896856</v>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
         <v>3.39</v>
       </c>
       <c r="B191" s="1">
-        <f>-7.8059/(A191^2)+13.2151/A191+-2.321</f>
+        <f t="shared" si="2"/>
         <v>0.89801906527092479</v>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
         <v>3.4</v>
       </c>
       <c r="B192" s="1">
-        <f>-7.8059/(A192^2)+13.2151/A192+-2.321</f>
+        <f t="shared" si="2"/>
         <v>0.89054325259515554</v>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
         <v>3.41</v>
       </c>
       <c r="B193" s="1">
-        <f>-7.8059/(A193^2)+13.2151/A193+-2.321</f>
+        <f t="shared" si="2"/>
         <v>0.88309963794600987</v>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
         <v>3.42</v>
       </c>
       <c r="B194" s="1">
-        <f>-7.8059/(A194^2)+13.2151/A194+-2.321</f>
+        <f t="shared" ref="B194:B257" si="3">-7.8059/(A194^2)+13.2151/A194+-2.321</f>
         <v>0.87568804076467943</v>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
         <v>3.43</v>
       </c>
       <c r="B195" s="1">
-        <f>-7.8059/(A195^2)+13.2151/A195+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.86830828141335603</v>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
         <v>3.44</v>
       </c>
       <c r="B196" s="1">
-        <f>-7.8059/(A196^2)+13.2151/A196+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.86096018117901529</v>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
         <v>3.45</v>
       </c>
       <c r="B197" s="1">
-        <f>-7.8059/(A197^2)+13.2151/A197+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.85364356227683258</v>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
         <v>3.46</v>
       </c>
       <c r="B198" s="1">
-        <f>-7.8059/(A198^2)+13.2151/A198+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.84635824785325253</v>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
         <v>3.47</v>
       </c>
       <c r="B199" s="1">
-        <f>-7.8059/(A199^2)+13.2151/A199+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.83910406198872112</v>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
         <v>3.48</v>
       </c>
       <c r="B200" s="1">
-        <f>-7.8059/(A200^2)+13.2151/A200+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.83188082970009214</v>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
         <v>3.49</v>
       </c>
       <c r="B201" s="1">
-        <f>-7.8059/(A201^2)+13.2151/A201+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.82468837694271757</v>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
         <v>3.5</v>
       </c>
       <c r="B202" s="1">
-        <f>-7.8059/(A202^2)+13.2151/A202+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.81752653061224434</v>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
         <v>3.51</v>
       </c>
       <c r="B203" s="1">
-        <f>-7.8059/(A203^2)+13.2151/A203+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.81039511854611535</v>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
         <v>3.52</v>
       </c>
       <c r="B204" s="1">
-        <f>-7.8059/(A204^2)+13.2151/A204+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.80329396952479337</v>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
         <v>3.53</v>
       </c>
       <c r="B205" s="1">
-        <f>-7.8059/(A205^2)+13.2151/A205+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.79622291327271677</v>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
         <v>3.54</v>
       </c>
       <c r="B206" s="1">
-        <f>-7.8059/(A206^2)+13.2151/A206+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.78918178045899934</v>
       </c>
     </row>
@@ -2293,7 +2293,7 @@
         <v>3.55</v>
       </c>
       <c r="B207" s="1">
-        <f>-7.8059/(A207^2)+13.2151/A207+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.78217040269787708</v>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
         <v>3.56</v>
       </c>
       <c r="B208" s="1">
-        <f>-7.8059/(A208^2)+13.2151/A208+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.77518861254892046</v>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
         <v>3.57</v>
       </c>
       <c r="B209" s="1">
-        <f>-7.8059/(A209^2)+13.2151/A209+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.76823624351701447</v>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
         <v>3.58</v>
       </c>
       <c r="B210" s="1">
-        <f>-7.8059/(A210^2)+13.2151/A210+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.76131313005212009</v>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
         <v>3.59</v>
       </c>
       <c r="B211" s="1">
-        <f>-7.8059/(A211^2)+13.2151/A211+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.75441910754882402</v>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
         <v>3.6</v>
       </c>
       <c r="B212" s="1">
-        <f>-7.8059/(A212^2)+13.2151/A212+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.74755401234567875</v>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
         <v>3.61</v>
       </c>
       <c r="B213" s="1">
-        <f>-7.8059/(A213^2)+13.2151/A213+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.74071768172435704</v>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
         <v>3.62</v>
       </c>
       <c r="B214" s="1">
-        <f>-7.8059/(A214^2)+13.2151/A214+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.73390995390861047</v>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
         <v>3.63</v>
       </c>
       <c r="B215" s="1">
-        <f>-7.8059/(A215^2)+13.2151/A215+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.7271306680630496</v>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
         <v>3.64</v>
       </c>
       <c r="B216" s="1">
-        <f>-7.8059/(A216^2)+13.2151/A216+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.72037966429175215</v>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
         <v>3.65</v>
       </c>
       <c r="B217" s="1">
-        <f>-7.8059/(A217^2)+13.2151/A217+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.71365678363670426</v>
       </c>
     </row>
@@ -2392,7 +2392,7 @@
         <v>3.66</v>
       </c>
       <c r="B218" s="1">
-        <f>-7.8059/(A218^2)+13.2151/A218+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.70696186807608452</v>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
         <v>3.67</v>
       </c>
       <c r="B219" s="1">
-        <f>-7.8059/(A219^2)+13.2151/A219+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.70029476052238859</v>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
         <v>3.68</v>
       </c>
       <c r="B220" s="1">
-        <f>-7.8059/(A220^2)+13.2151/A220+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.69365530482041526</v>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
         <v>3.69</v>
       </c>
       <c r="B221" s="1">
-        <f>-7.8059/(A221^2)+13.2151/A221+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.68704334574511039</v>
       </c>
     </row>
@@ -2428,7 +2428,7 @@
         <v>3.7</v>
       </c>
       <c r="B222" s="1">
-        <f>-7.8059/(A222^2)+13.2151/A222+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.68045872899926918</v>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
         <v>3.71</v>
       </c>
       <c r="B223" s="1">
-        <f>-7.8059/(A223^2)+13.2151/A223+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.67390130121112124</v>
       </c>
     </row>
@@ -2446,7 +2446,7 @@
         <v>3.72</v>
       </c>
       <c r="B224" s="1">
-        <f>-7.8059/(A224^2)+13.2151/A224+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.66737090993178372</v>
       </c>
     </row>
@@ -2455,7 +2455,7 @@
         <v>3.73</v>
       </c>
       <c r="B225" s="1">
-        <f>-7.8059/(A225^2)+13.2151/A225+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.66086740363259944</v>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
         <v>3.74</v>
       </c>
       <c r="B226" s="1">
-        <f>-7.8059/(A226^2)+13.2151/A226+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.65439063170236489</v>
       </c>
     </row>
@@ -2473,7 +2473,7 @@
         <v>3.75</v>
       </c>
       <c r="B227" s="1">
-        <f>-7.8059/(A227^2)+13.2151/A227+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.6479404444444441</v>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
         <v>3.76</v>
       </c>
       <c r="B228" s="1">
-        <f>-7.8059/(A228^2)+13.2151/A228+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.64151669307378922</v>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
         <v>3.77</v>
       </c>
       <c r="B229" s="1">
-        <f>-7.8059/(A229^2)+13.2151/A229+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.63511922971385149</v>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
         <v>3.78</v>
       </c>
       <c r="B230" s="1">
-        <f>-7.8059/(A230^2)+13.2151/A230+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.62874790739340991</v>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
         <v>3.79</v>
       </c>
       <c r="B231" s="1">
-        <f>-7.8059/(A231^2)+13.2151/A231+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.62240258004330196</v>
       </c>
     </row>
@@ -2518,7 +2518,7 @@
         <v>3.8</v>
       </c>
       <c r="B232" s="1">
-        <f>-7.8059/(A232^2)+13.2151/A232+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.61608310249307463</v>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
         <v>3.81</v>
       </c>
       <c r="B233" s="1">
-        <f>-7.8059/(A233^2)+13.2151/A233+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.60978933046754946</v>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
         <v>3.82</v>
       </c>
       <c r="B234" s="1">
-        <f>-7.8059/(A234^2)+13.2151/A234+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.60352112058331686</v>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
         <v>3.83</v>
       </c>
       <c r="B235" s="1">
-        <f>-7.8059/(A235^2)+13.2151/A235+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.59727833034515188</v>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
         <v>3.84</v>
       </c>
       <c r="B236" s="1">
-        <f>-7.8059/(A236^2)+13.2151/A236+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.59106081814236111</v>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
         <v>3.85</v>
       </c>
       <c r="B237" s="1">
-        <f>-7.8059/(A237^2)+13.2151/A237+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.58486844324506615</v>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
         <v>3.86</v>
       </c>
       <c r="B238" s="1">
-        <f>-7.8059/(A238^2)+13.2151/A238+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.57870106580042391</v>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
         <v>3.87</v>
       </c>
       <c r="B239" s="1">
-        <f>-7.8059/(A239^2)+13.2151/A239+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.5725585468287826</v>
       </c>
     </row>
@@ -2590,7 +2590,7 @@
         <v>3.88</v>
       </c>
       <c r="B240" s="1">
-        <f>-7.8059/(A240^2)+13.2151/A240+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.56644074821978974</v>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
         <v>3.89</v>
       </c>
       <c r="B241" s="1">
-        <f>-7.8059/(A241^2)+13.2151/A241+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.56034753272843796</v>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
         <v>3.9</v>
       </c>
       <c r="B242" s="1">
-        <f>-7.8059/(A242^2)+13.2151/A242+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.55427876397107134</v>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
         <v>3.91</v>
       </c>
       <c r="B243" s="1">
-        <f>-7.8059/(A243^2)+13.2151/A243+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.54823430642133397</v>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
         <v>3.92</v>
       </c>
       <c r="B244" s="1">
-        <f>-7.8059/(A244^2)+13.2151/A244+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.54221402540608077</v>
       </c>
     </row>
@@ -2635,7 +2635,7 @@
         <v>3.93</v>
       </c>
       <c r="B245" s="1">
-        <f>-7.8059/(A245^2)+13.2151/A245+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.53621778710124302</v>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
         <v>3.94</v>
       </c>
       <c r="B246" s="1">
-        <f>-7.8059/(A246^2)+13.2151/A246+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.53024545852766058</v>
       </c>
     </row>
@@ -2653,7 +2653,7 @@
         <v>3.95</v>
       </c>
       <c r="B247" s="1">
-        <f>-7.8059/(A247^2)+13.2151/A247+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.52429690754686709</v>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
         <v>3.96</v>
       </c>
       <c r="B248" s="1">
-        <f>-7.8059/(A248^2)+13.2151/A248+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.51837200285685103</v>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
         <v>3.97</v>
       </c>
       <c r="B249" s="1">
-        <f>-7.8059/(A249^2)+13.2151/A249+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.51247061398777927</v>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
         <v>3.98</v>
       </c>
       <c r="B250" s="1">
-        <f>-7.8059/(A250^2)+13.2151/A250+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.50659261129769462</v>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
         <v>3.99</v>
       </c>
       <c r="B251" s="1">
-        <f>-7.8059/(A251^2)+13.2151/A251+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.50073786596817804</v>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
         <v>4</v>
       </c>
       <c r="B252" s="1">
-        <f>-7.8059/(A252^2)+13.2151/A252+-2.321</f>
+        <f t="shared" si="3"/>
         <v>0.49490624999999966</v>
       </c>
     </row>
